--- a/Content/Configs/ExcelFiles/卡牌逻辑表.xlsx
+++ b/Content/Configs/ExcelFiles/卡牌逻辑表.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>蹦蹦炸弹！一条食材弹了起来。</t>
+          <t>免费获得1个食材</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>钓鱼小能手1级</t>
+          <t>食材-1，将垂钓技能升级为1级</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>哒哒哒~这次是两条。|钓鱼小能手2级</t>
+          <t>免费获得2个食材|食材-1，木材-1，将垂钓技能升级为2级</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -573,7 +573,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>钓鱼小能手1级222</t>
+          <t>食材-1，将垂钓技能升级为1级</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>先烤一条吃|砍树小能手2级</t>
+          <t>免费获得1个食材，1个木材|食材-1，木材-1，将伐木技能升级为1级</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -611,7 +611,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>哒哒哒~这次是两条。</t>
+          <t>免费获得2个食材</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>先烤一条吃</t>
+          <t>免费获得1个食材，1个木材</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>钓鱼小能手2级</t>
+          <t>食材-1，木材-1，将垂钓技能升级为2级</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -679,7 +679,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>两条烤鱼串一串</t>
+          <t>免费获得2个食材，1个木材</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -707,7 +707,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>砍树小能手2级</t>
+          <t>食材-1，木材-1，将伐木技能升级为1级</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>两条烤鱼串一串</t>
+          <t>免费获得2个食材，1个木材</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -743,7 +743,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>伐伐伐伐木工</t>
+          <t>免费获得1个木材</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>砍树小能手1级</t>
+          <t>食材-1，木材-1，将伐木技能升级为2级，奖励1个原石！</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>伐伐伐伐木工|砍树小能手2级222</t>
+          <t>免费获得1个木材|木材-1，矿石-1，将伐木技能升级为2级</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -811,7 +811,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>伐伐伐伐木工</t>
+          <t>免费获得1个木材</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>砍树小能手2级222</t>
+          <t>木材-1，矿石-1，将伐木技能升级为2级</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>伐伐伐伐木工x2|砍树小能手3级</t>
+          <t>免费获得2个木材|木材-1，矿石-2，将伐木技能升级为3级，奖励5个原石！</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -879,7 +879,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>采矿小能手1级</t>
+          <t>木材-2，将采矿技能升级为1级</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>采采采采矿石|采矿小能手2级222</t>
+          <t>免费获得1个矿石|食材-1，木材-2，将采矿技能升级为2级</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -917,7 +917,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>采矿小能手2级222</t>
+          <t>食材-1，木材-2，将采矿技能升级为2级</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>采采采采矿石|采矿小能手2级</t>
+          <t>免费获得1个矿石|食材-2，木材-1，将采矿技能升级为2级</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -955,7 +955,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>采采采采矿石</t>
+          <t>免费获得1个矿石</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -985,7 +985,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>采矿小能手2级222</t>
+          <t>食材-1，木材-2，将采矿技能升级为2级</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>获得采矿小能手称号</t>
+          <t>采矿技能升为3级，奖励2个原石！</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>采矿小能手2级</t>
+          <t>食材-2，木材-1，将采矿技能升级为2级</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>获得采矿小能手称号</t>
+          <t>采矿技能升为3级，奖励2个原石！</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>获得采矿小能手称号</t>
+          <t>采矿技能升为3级，奖励2个原石！</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>换亮晶晶的石头</t>
+          <t>食材-1,木材-1中任选一项，来获得1个矿石</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>见闻小能手2级</t>
+          <t>木材-2，将见闻技能升级为2级</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>木头装太多了，换点吃的和亮晶晶|见闻小能手3级222</t>
+          <t>减去1个木材来获得1个食材和一个矿石|木材-1，矿石-1，将见闻技能升级为3级</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>见闻小能手2级222</t>
+          <t>食材-2，将见闻技能升级为2级</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>炸鱼太多了，换点木头的和亮晶晶|见闻小能手3级</t>
+          <t>减去1个食材来获得1个木材和一个矿石|食材-1，矿石-1，将见闻技能升级为3级</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>木头装太多了，换点吃的和亮晶晶</t>
+          <t>减去1个木材来获得1个食材和一个矿石</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>炸鱼太多了，换点木头的和亮晶晶</t>
+          <t>减去1个食材来获得1个木材和一个矿石</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>见闻小能手3级222</t>
+          <t>木材-1，矿石-1，将见闻技能升级为3级</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>都换都换</t>
+          <t>食材-1,木材-1,矿石-1中任选一项，来获得1个食材，1个木材，1个矿石</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>见闻小能手3级</t>
+          <t>食材-1，矿石-1，将见闻技能升级为3级</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>都换都换</t>
+          <t>食材-1,木材-1,矿石-1中任选一项，来获得1个食材，1个木材，1个矿石</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>都换都换</t>
+          <t>食材-1,木材-1,矿石-1中任选一项，来获得1个食材，1个木材，1个矿石</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>等价交换</t>
+          <t>食材-2,木材-2中任选一项，来获得1个食材，1个木材</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>贸易小能手2级</t>
+          <t>食材-1，将贸易技能升级为2级</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>越换越多|贸易小能手3级</t>
+          <t>食材-2,矿石-2中任选一项，来获得3个木材|食材-1，木材-1，将贸易技能升级为3级</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>贸易小能手2级222</t>
+          <t>木材-1，将贸易技能升级为2级</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>肚子饿了|贸易小能手3级222</t>
+          <t>木材-2,矿石-2中任选一项，来获得3个食材|食材-1，木材-1，将贸易技能升级为3级</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>越换越多</t>
+          <t>食材-2,矿石-2中任选一项，来获得3个木材</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>肚子饿了</t>
+          <t>木材-2,矿石-2中任选一项，来获得3个食材</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>贸易小能手3级</t>
+          <t>食材-1，木材-1，将贸易技能升级为3级</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>想要亮晶晶|贸易小能手4级</t>
+          <t>食材-2,木材-2中任选一项，来获得3个矿石|食材-1，将贸易技能升级为4级</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>贸易小能手3级222</t>
+          <t>食材-1，木材-1，将贸易技能升级为3级</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>想要亮晶晶|贸易小能手4级</t>
+          <t>食材-2,木材-2中任选一项，来获得3个矿石|食材-1，将贸易技能升级为4级</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>想要亮晶晶</t>
+          <t>食材-2,木材-2中任选一项，来获得3个矿石</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>贸易小能手4级</t>
+          <t>食材-1，将贸易技能升级为4级</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>肚子好饿|贸易小能手3级|贸易小能手3级222</t>
+          <t>木材-2,矿石-2中任选一项，来获得3个食材|食材-1，木材-1，将贸易技能升级为3级|食材-1，木材-1，将贸易技能升级为3级</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>肚子好饿</t>
+          <t>木材-2,矿石-2中任选一项，来获得3个食材</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>解谜小能手1级</t>
+          <t>食材-1，木材-1，矿石-2，将解谜技能升级为1级</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>解谜成就全部解锁完成</t>
+          <t>解谜技能已纯火如青，奖励4个原石！</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>解谜小能手2级222</t>
+          <t>食材-1，木材-1，将解谜技能升级为2级</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>先烤一条吃|解谜小能手2级</t>
+          <t>免费获得1个食材，1个木材|食材-1，木材-1，矿石-1，将解谜技能升级为2级</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>先烤一条吃</t>
+          <t>免费获得1个食材，1个木材</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>解谜小能手2级</t>
+          <t>食材-1，木材-1，矿石-1，将解谜技能升级为2级</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>炸鱼，砍树，敲石头|解谜小能手3级222</t>
+          <t>免费获得1个食材，1个木材，1个矿石|食材-2，木材-2，矿石-2，将解谜技能升级为3级</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>炸鱼，砍树，敲石头</t>
+          <t>免费获得1个食材，1个木材，1个矿石</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>解谜小能手3级222</t>
+          <t>食材-2，木材-2，矿石-2，将解谜技能升级为3级</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>解谜成就全部解锁完成</t>
+          <t>解谜技能已纯火如青，奖励4个原石！</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>解谜成就全部解锁完成</t>
+          <t>解谜技能已纯火如青，奖励4个原石！</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>挑战小能手1级</t>
+          <t>食材-1，木材-1，将挑战技能升级为1级</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>挑战小能手2级</t>
+          <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个原石！</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>挑战小能手2级</t>
+          <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个原石！</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>挑战小能手3级</t>
+          <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个原石！</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>挑战小能手3级</t>
+          <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个原石！</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>挑战成就全部解锁完成</t>
+          <t>挑战技能已登峰造极，奖励6个原石！</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>挑战成就全部解锁完成</t>
+          <t>挑战技能已登峰造极，奖励6个原石！</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>神像小能手1级</t>
+          <t>食材-1，木材-1，矿石-2，将神像技能升级为1级</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>神像小能手2级</t>
+          <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个原石！</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>神像小能手2级</t>
+          <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个原石！</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>神像小能手3级</t>
+          <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个原石！</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>神像小能手3级</t>
+          <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个原石！</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>神像成就全部解锁完成</t>
+          <t>神像技能已出神入化，奖励10个原石！</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>神像成就全部解锁完成</t>
+          <t>神像技能已出神入化，奖励10个原石！</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>

--- a/Content/Configs/ExcelFiles/卡牌逻辑表.xlsx
+++ b/Content/Configs/ExcelFiles/卡牌逻辑表.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>食材-1，将垂钓技能升级为1级</t>
+          <t>食材-1，将垂钓技能升级为1级（分支1）</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>食材-1，将垂钓技能升级为1级</t>
+          <t>食材-1，将垂钓技能升级为1级（分支2）</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>食材-2,矿石-2中任选一项，来获得3个木材|食材-1，木材-1，将贸易技能升级为3级</t>
+          <t>食材-2,矿石-2中任选一项，来获得3个木材|食材-1，木材-1，将贸易技能升级为3级（分支1）</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>木材-2,矿石-2中任选一项，来获得3个食材|食材-1，木材-1，将贸易技能升级为3级</t>
+          <t>木材-2,矿石-2中任选一项，来获得3个食材（分支1）|食材-1，木材-1，将贸易技能升级为3级（分支2）</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>木材-2,矿石-2中任选一项，来获得3个食材</t>
+          <t>木材-2,矿石-2中任选一项，来获得3个食材（分支1）</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>食材-1，木材-1，将贸易技能升级为3级</t>
+          <t>食材-1，木材-1，将贸易技能升级为3级（分支1）</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>食材-1，木材-1，将贸易技能升级为3级</t>
+          <t>食材-1，木材-1，将贸易技能升级为3级（分支2）</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>木材-2,矿石-2中任选一项，来获得3个食材|食材-1，木材-1，将贸易技能升级为3级|食材-1，木材-1，将贸易技能升级为3级</t>
+          <t>木材-2,矿石-2中任选一项，来获得3个食材（分支2）|食材-1，木材-1，将贸易技能升级为3级（分支1）|食材-1，木材-1，将贸易技能升级为3级（分支2）</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>木材-2,矿石-2中任选一项，来获得3个食材</t>
+          <t>木材-2,矿石-2中任选一项，来获得3个食材（分支2）</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>

--- a/Content/Configs/ExcelFiles/卡牌逻辑表.xlsx
+++ b/Content/Configs/ExcelFiles/卡牌逻辑表.xlsx
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>食材-1,木材-1中任选一项，来获得1个矿石</t>
+          <t>食材-1，木材-1中任选一项，换取矿石+1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>减去1个木材来获得1个食材和一个矿石|木材-1，矿石-1，将见闻技能升级为3级</t>
+          <t>木材-1，换取食材+1，矿石+1|木材-1，矿石-1，将见闻技能升级为3级</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>减去1个食材来获得1个木材和一个矿石|食材-1，矿石-1，将见闻技能升级为3级</t>
+          <t>食材-1，换取木材+1，矿石+1|食材-1，矿石-1，将见闻技能升级为3级</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>减去1个木材来获得1个食材和一个矿石</t>
+          <t>木材-1，换取食材+1，矿石+1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>减去1个食材来获得1个木材和一个矿石</t>
+          <t>食材-1，换取木材+1，矿石+1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>食材-1,木材-1,矿石-1中任选一项，来获得1个食材，1个木材，1个矿石</t>
+          <t>食材-1，木材-1，矿石-1中任选一项，换取食材+1，木材+1，矿石+1</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>食材-1,木材-1,矿石-1中任选一项，来获得1个食材，1个木材，1个矿石</t>
+          <t>食材-1，木材-1，矿石-1中任选一项，换取食材+1，木材+1，矿石+1</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>食材-1,木材-1,矿石-1中任选一项，来获得1个食材，1个木材，1个矿石</t>
+          <t>食材-1，木材-1，矿石-1中任选一项，换取食材+1，木材+1，矿石+1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>食材-2,木材-2中任选一项，来获得1个食材，1个木材</t>
+          <t>食材-2，木材-2中任选一项，换取食材+1，木材+1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>食材-2,矿石-2中任选一项，来获得3个木材|食材-1，木材-1，将贸易技能升级为3级（分支1）</t>
+          <t>食材-2，矿石-2中任选一项，换取木材+3|食材-1，木材-1，将贸易技能升级为3级（分支1）</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>木材-2,矿石-2中任选一项，来获得3个食材（分支1）|食材-1，木材-1，将贸易技能升级为3级（分支2）</t>
+          <t>木材-2，矿石-2中任选一项，换取食材+3（分支1）|食材-1，木材-1，将贸易技能升级为3级（分支2）</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>食材-2,矿石-2中任选一项，来获得3个木材</t>
+          <t>食材-2，矿石-2中任选一项，换取木材+3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>木材-2,矿石-2中任选一项，来获得3个食材（分支1）</t>
+          <t>木材-2，矿石-2中任选一项，换取食材+3（分支1）</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>食材-2,木材-2中任选一项，来获得3个矿石|食材-1，将贸易技能升级为4级</t>
+          <t>食材-2，木材-2中任选一项，换取矿石+3|矿石-1，将贸易技能升级为4级</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>食材-2,木材-2中任选一项，来获得3个矿石|食材-1，将贸易技能升级为4级</t>
+          <t>食材-2，木材-2中任选一项，换取矿石+3|矿石-1，将贸易技能升级为4级</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>食材-2,木材-2中任选一项，来获得3个矿石</t>
+          <t>食材-2，木材-2中任选一项，换取矿石+3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>食材-1，将贸易技能升级为4级</t>
+          <t>矿石-1，将贸易技能升级为4级</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>木材-2,矿石-2中任选一项，来获得3个食材（分支2）|食材-1，木材-1，将贸易技能升级为3级（分支1）|食材-1，木材-1，将贸易技能升级为3级（分支2）</t>
+          <t>木材-2，矿石-2中任选一项，换取食材+3（分支2）|食材-1，木材-1，将贸易技能升级为3级（分支1）|食材-1，木材-1，将贸易技能升级为3级（分支2）</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>木材-2,矿石-2中任选一项，来获得3个食材（分支2）</t>
+          <t>木材-2，矿石-2中任选一项，换取食材+3（分支2）</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>

--- a/Content/Configs/ExcelFiles/卡牌逻辑表.xlsx
+++ b/Content/Configs/ExcelFiles/卡牌逻辑表.xlsx
@@ -773,7 +773,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>食材-1，木材-1，将伐木技能升级为2级，奖励1个原石！</t>
+          <t>食材-1，木材-1，将伐木技能升级为2级，奖励1个粉球！</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>免费获得2个木材|木材-1，矿石-2，将伐木技能升级为3级，奖励5个原石！</t>
+          <t>免费获得2个木材|木材-1，矿石-2，将伐木技能升级为3级，奖励5个粉球！</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -993,7 +993,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>采矿技能升为3级，奖励2个原石！</t>
+          <t>采矿技能升为3级，奖励2个粉球！</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>采矿技能升为3级，奖励2个原石！</t>
+          <t>采矿技能升为3级，奖励2个粉球！</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>采矿技能升为3级，奖励2个原石！</t>
+          <t>采矿技能升为3级，奖励2个粉球！</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>解谜技能已纯火如青，奖励4个原石！</t>
+          <t>解谜技能已纯火如青，奖励4个粉球！</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>解谜技能已纯火如青，奖励4个原石！</t>
+          <t>解谜技能已纯火如青，奖励4个粉球！</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>解谜技能已纯火如青，奖励4个原石！</t>
+          <t>解谜技能已纯火如青，奖励4个粉球！</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个原石！</t>
+          <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个粉球！</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个原石！</t>
+          <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个粉球！</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个原石！</t>
+          <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个粉球！</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个原石！</t>
+          <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个粉球！</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>挑战技能已登峰造极，奖励6个原石！</t>
+          <t>挑战技能已登峰造极，奖励6个粉球！</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>挑战技能已登峰造极，奖励6个原石！</t>
+          <t>挑战技能已登峰造极，奖励6个粉球！</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个原石！</t>
+          <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个粉球！</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个原石！</t>
+          <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个粉球！</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个原石！</t>
+          <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个粉球！</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个原石！</t>
+          <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个粉球！</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>神像技能已出神入化，奖励10个原石！</t>
+          <t>神像技能已出神入化，奖励10个粉球！</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>神像技能已出神入化，奖励10个原石！</t>
+          <t>神像技能已出神入化，奖励10个粉球！</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>

--- a/Content/Configs/ExcelFiles/卡牌逻辑表.xlsx
+++ b/Content/Configs/ExcelFiles/卡牌逻辑表.xlsx
@@ -773,7 +773,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>食材-1，木材-1，将伐木技能升级为2级，奖励1个粉球！</t>
+          <t>食材-1，木材-1，将伐木技能升级为2级，奖励1个原石！</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>免费获得2个木材|木材-1，矿石-2，将伐木技能升级为3级，奖励5个粉球！</t>
+          <t>免费获得2个木材|木材-1，矿石-2，将伐木技能升级为3级，奖励5个原石！</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -993,7 +993,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>采矿技能升为3级，奖励2个粉球！</t>
+          <t>采矿技能升为3级，奖励2个原石！</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>采矿技能升为3级，奖励2个粉球！</t>
+          <t>采矿技能升为3级，奖励2个原石！</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>采矿技能升为3级，奖励2个粉球！</t>
+          <t>采矿技能升为3级，奖励2个原石！</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>解谜技能已纯火如青，奖励4个粉球！</t>
+          <t>解谜技能已纯火如青，奖励4个原石！</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>解谜技能已纯火如青，奖励4个粉球！</t>
+          <t>解谜技能已纯火如青，奖励4个原石！</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>解谜技能已纯火如青，奖励4个粉球！</t>
+          <t>解谜技能已纯火如青，奖励4个原石！</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个粉球！</t>
+          <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个原石！</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个粉球！</t>
+          <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个原石！</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个粉球！</t>
+          <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个原石！</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个粉球！</t>
+          <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个原石！</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>挑战技能已登峰造极，奖励6个粉球！</t>
+          <t>挑战技能已登峰造极，奖励6个原石！</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>挑战技能已登峰造极，奖励6个粉球！</t>
+          <t>挑战技能已登峰造极，奖励6个原石！</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个粉球！</t>
+          <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个原石！</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个粉球！</t>
+          <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个原石！</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个粉球！</t>
+          <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个原石！</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个粉球！</t>
+          <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个原石！</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>神像技能已出神入化，奖励10个粉球！</t>
+          <t>神像技能已出神入化，奖励10个原石！</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>神像技能已出神入化，奖励10个粉球！</t>
+          <t>神像技能已出神入化，奖励10个原石！</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
